--- a/500all/speech_level/speeches_CHRG-114hhrg97565.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97565.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412574</t>
   </si>
   <si>
-    <t>Randy K. Weber, Sr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Weber. Good morning, and welcome to today's Energy Subcommittee hearing on the Department of Energy's (DOE) Energy Innovation Hubs.    This hearing will establish Congressional oversight over the four existing Hubs, examining the costs and benefits of the Department's approach to collaborative research and development.    DOE Energy Innovation Hubs are designed to coordinate research efforts across the Department, encouraging cooperation between researchers in basic science, applied energy, and engineering, and bringing together researchers from the national labs, academia, and industry into teams focused on solving critical energy challenges. With appropriate goals, benchmarks, and oversight, this kind of collaborative research and development is just plain old common sense.    Through the national labs, the federal government has the expertise to conduct basic and applied research, while the private sector has the ability and the motivation to move the next-generation energy technology into the marketplace. The Department funds the four Energy Innovation Hubs at approximately $90 million per year. The existing Hubs are focused on a number of energy challenges including extending the life of nuclear power reactors, developing better and more powerful batteries, creating new materials for advanced energy technology, and mimicking the ability that plants have to create fuels from sunlight.    The Consortium for Advanced Simulation of Light Water Reactors, also known as CASL, brings together our best and brightest from industry, academia, and the labs to develop codes to model and simulate operations of the U.S. reactor fleet. These cutting-edge tools allow us to increase our return on investment from DOE's supercomputers within the Office of Science's Advanced Scientific Computing Research program--the subject of a hearing we held in the Energy Subcommittee earlier this year.    One critical application of CASL's virtual environment for reactor applications, known as VERA for short, is to enable the nuclear industry and regulators to predict the performance of reactor components for license renewals by the Nuclear Regulatory Commission (NRC). I'd like everyone to take note of the slide on the screen, which shows what is at stake--it's called The Clock is Ticking--shows what is at stake for the nation's base load electricity from nuclear power if the operating fleet is unable to secure license renewals to 60 years and 80 years of operating life, respectively, and it shows it there on either one of our slides. These NRC license renewals are an important issue for the reliability of our nation's electricity and for my district on The Texas Gulf Coast.    The South Texas Project, currently operating near my district which I used to represent, by the way, as you gentlemen know, provides reliable, zero-emissions electricity to the State of Texas, and good-paying jobs for my constituents. It's pretty clear from this graph just how important these licenses are to maintaining reliable, affordable power across the country. I know that Dr. Gehin has provided a similar figure in his prepared testimony, so I look forward to discussing this important issue today.    The research and development underway in the CASL Hub is just one example of the benefits from this collaborative research approach. The technical expertise and scientific facilities in our national labs can provide tremendous impact on the private sector through appropriate partnerships.    However, while the current DOE Hubs program pursues worthy research goals, not all collaborative research is a guaranteed success. In the first round of Hubs in the program, DOE established a Hub focused on building efficiency. But due to cost, poor performance, and a lack of clear goals, this Hub was dissolved.    Establishing a new Hub, center, or project is not the answer to every problem, and new proposals must be appropriately justified to Congress and shown to meet the research and development goals for the lead DOE office. Any authorization of new or continuing Hubs proposed by DOE must also include the ability to efficiently close down projects that are not achieving clear measures of success.    I want to thank our witnesses today for testifying on their valuable research and the DOE Energy Innovation Hub program. I look forward to a discussion about Federal Government's role in leading collaborative research and development, and how to leverage limited taxpayer dollars for the greatest economic impact and scientific achievement.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412276</t>
   </si>
   <si>
-    <t>Alan Grayson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grayson. Thank you, Chairman Weber, for holding this hearing, and thank you to our witnesses for joining us today.    I am pleased to see that we have the Director of each Energy Innovation Hub here this morning. These Hubs seek to accelerate scientific discoveries that address critical energy issues, particularly barriers to advancing new energy technology.    Today's hearing is well-timed. Two of the four existing Innovation Hubs are up for renewal this year, while the others are just beginning. The Energy Innovation Hub Program was established only five years ago and this hearing will provide Members an important opportunity to understand further what must be done to ensure the successes of existing, and future, Hubs.    Unfortunately, Congress has yet to provide any authorizing legislation for the important work being performed at each of the Hubs. I hope that today's hearing will provide the insights needed to accomplish that goal. Toward that end, I have already introduced H.R. 1870, a bill that would establish merit-based rules governing the selection, scope, and composition of future Hubs. Further, the Committee hasaccepted the legislative language from that bill as an amendment to the America COMPETES Reauthorization Act, which was considered on the House Floor less than a month ago. I appreciate the Chairman and his staff's efforts to work together to ensure that this important provision was included in the final bill. I also want to thank Ranking Member Johnson for including it in the alternative COMPETES legislation, produced by the Minority, that was offered as a substitute amendment both in Committee and on the Floor.    I am very excited about the possibility of our Committee finally producing authorizing legislation for Energy Innovation Hubs. There are some issues I look forward to learning about this morning, particularly issues regarding Hub management and length of operation. We need develop a plan for Hubs that reach the end of their second five-year contract. Presently, the Department is indicating that Hubs will conclude work after a maximum of ten years only. I support this guidance in principle because it fosters a sense of urgency within Hubs to define and achieve goals as expeditiously as possible.    But what happens when a Hub has been extraordinarily successful? Maybe there should be some process through which, according to merit-based review, that Hub is permitted to continue pursuing promising research and maybe even profound new discoveries.    The answers to these questions, and others, are what I'm looking forward to hearing from you all today. I also look forward to hearing each of your views as to how your own Hub works in the context of Department of Energy research activities and goals across the board. How, specifically, is the research you are performing contributing to the larger effort to solve our nation's pressing energy challenges and needs?    Each of you is involved in exciting and innovative work. I look forward to hearing from you, and watching each of your Hubs as they progress. It's my hope that Congress can provide to you the resources that you need to accomplish your goals, and I look forward to working with you, Chairman Weber, toward that end.    Thank you. I yield the balance of my time.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400630</t>
   </si>
   <si>
-    <t>Daniel Lipinski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Chairman Weber, and thank you, Chairman and Ranking Member Grayson, for holding this hearing.    It's my honor to introduce Dr. George Crabtree, who's the Director of Joint Center for Energy Storage Research, or JCESR, at Argonne National Lab, which is in my district. He's also a distinguished Professor of Physics, Electrical and Mechanical Engineering at the University of Illinois at Chicago, serving as a bridge between Argonne and academia. He has won numerous awards for his research including the Kammerlingh Onnes Prize for his work on vortices and high-temperature superconductors. This prestigious prize is awarded once every three years. Dr. Crabtree is the second recipient. He has won the U.S. Department of Energy's Award for Outstanding Scientific Accomplishment in Solid State Physics four times, which is a very notable accomplishment.    Dr. Crabtree has served as Director of the Material Science Division at Argonne. He has published more than 400 papers in leading scientific journals, has collected over 16,000 career citations, has given over 100 invited talks at national and international scientific conferences. His research interests include next-generation battery materials, sustainable energy, energy policy, material science, nanoscale superconductors and magnets, and highly correlated electrons and medals. Dr. Crabtree co-chaired the Under Secretary of Energy's Assessment of DOE's Applied Energy programs.    I want to thank Dr. Crabtree for joining us today and I look forward to your testimony.</t>
   </si>
   <si>
@@ -88,36 +79,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Atwater</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Atwater. Okay. Mr. Chairman, distinguished Members, ladies and gentlemen. It's my pleasure to be here today to tell you about the work, the mission and the progress the Joint Center for Artificial Photosynthesis.    So I think it's fair to say that having a source of renewable fuels would be a great source of energy security, economic well-being, and environmental protection for the United States, and JCAP, which is a partnership that's led by Cal Tech, but also with major partnerships with the national labs, Lawrence Berkeley National Labs and Stanford Linear Accelerator Lab, as well as the University of California, is focusing on building the scientific foundation for renewable synthesis of transportation fuels directly from sunlight, water and carbon dioxide using a process called artificial photosynthesis, or otherwise known as generating fuels from sunlight.    So most people are familiar with the idea of generating electricity from sunlight with solar panels that you might put on your roof, so what JCAP is working on is the science behind taking those charge carriers and directly converting those charge carriers that come out of your solar panel into chemical fuels, examples of which are hydrogen, which is generated by splitting water into hydrogen and oxygen, and generating renewable carbon-based fuels by reduction of carbon dioxide. And JCAP was established in 2010, and during its first five years had a primary emphasis on hydrogen production, and its missionary objective, a sort of overarching missionary objective during that time was to develop a robust solar fuel generator for hydrogen generation that operates 10 times more efficiently than natural systems like plants and crops. And I'm happy to say that JCAP has been able to meet that objective of developing a robust solar fuels generator, and more importantly, really developing the concept of what a solar fuels generator is. That's been an important contribution to the scientific field and to the advancement of technology.    In its next five years in renewal, JCAP is going to focus on the--as a main objective, reduction of CO&lt;INF&gt;2&lt;/INF&gt; and converting reduction of CO&lt;INF&gt;2&lt;/INF&gt; to transportation fuels, direct transportation fuels, and this is really also in addition to a strategic objective for making fuels, it is really a dramatic scientific grand challenge, the reduction of CO&lt;INF&gt;2&lt;/INF&gt; selectively, producing exactly one product and not a bunch of byproducts is a true scientific grand challenge.    So to date, we have, as I indicated, been able to develop solar fuels generators that operate 10 times more efficiently than plants, and that has really set the stage for a follow-on generation of applied R&amp;D that can develop the scalable generators, and as you may know, there is no existing solar fuels industry. While there's a solar panel industry, there is no solar fuels industry, so it is these innovations that will really set the stage for U.S. industry, a new U.S. industry in this area.    And in the course of its work in generating solar fuels generators, JCAP also discovered new catalysts for water oxidation and reduction, importantly, a method to protect semiconductors against corrosion so they can be long-lasting and robust in their operation.    In addition to these scientific discoveries, JCAP established a number of important facilities including two state-of-the-art labs, one at California Institute of Technology and once at Lawrence Berkeley Laboratory that are purpose-built for solar fuels research. It established new methods for rapid high-throughput screening of materials so we can do experiments that used to take years in matters of weeks. We developed the first facility for so-called benchmarking, or developing standard test conditions for evaluating catalysts so that we can understand how different solar fuels materials operator and perform. We developed new methods for characterization of solar fuels materials using advanced X-ray light source techniques at the Advanced Light Source at Lawrence Berkeley labs and Stanford Linear Accelerator Lab.    Also, to set the stage for a new solar fuels industry, JCAP has been very active in developing invention disclosures, a total of 36 invention disclosures, and 26 patent applications, which are available for licensing to industry, and has an output of scientific results, 200 papers, 60 percent of which are in high-impact journals and numerous key note and invited presentations by research scientists at JCAP.    And so just to highlight some of the things that, you know, why is it that a Hub is an appropriate mechanism to carry on and accelerate this kind of research, JCAP has been able to leverage the integrated Hub concept to make significant advances, one of which I cited earlier, which is the notion that we could accelerate the development of catalyst materials on a time scale that normally takes years in the sort of conventional pace of progress in science, and carry out that in a matter of weeks, and so as an example, in 2013, JCAP developed by a collaboration between two of the JCAP projects, the high throughput experiment project and the heterogeneous catalysis project, new catalyst materials composed of four elements, and there are many, many ways you can combine four elements together in different compositions, so a very large number of samples were made and rapidly screened using high-throughput combinatorial synthesis techniques that allowed us to very rapidly identify candidates and promising candidates were scaled up and tested at the laboratory level, really accelerating that pace of progress.    Another example is the development of a cross-cutting what we call process materials and integration team, a group of applied and basic research scientists that came together from across JCAP to really understand how to put together and design and build very rapidly solar fuels generator prototypes so we could understand what works and what doesn't on a rapid time scale.    So those are many of the key accomplishments, and so for the future, JCAP is going to focus on the grand challenge of--scientific grand challenge of reduction of carbon dioxide in generation of liquid fuels directly from the products, reduced products. This is an area that takes JCAP, which has a translational mission, sort of more upstream in the basic research end, because in the area of carbon dioxide reduction, there are many more scientific challenges and unanswered questions than I think currently exist for the case of hydrogen production. And so it's the opportunity to really unlock the mechanisms and the scientific discoveries that could selectively reduce CO&lt;INF&gt;2&lt;/INF&gt; to fuel products that could generate a new generation of generators for liquid fuels, and that's going to be our missionary objective as a scientific grand challenge and setting the stage for a new type of solar fuel generator.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. Thank you, Dr. Atwater.    Dr. Gehin.</t>
   </si>
   <si>
-    <t>Gehin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Gehin. Thank you very much, Chairman Weber, Ranking Member Grayson, and Members of the Subcommittee. It's my honor to be here to provide this testimony on the Energy Innovation Hub integrated research approach.    CASL was the first Hub established by the Department of Energy in July 2010. It's currently completing its first five-year term. It consists of 10 core founding partner institutions from academia, national laboratories and industries led by Oak Ridge National Laboratory.    Our focus is on innovations in nuclear commercial power generator, specifically the advanced modeling and simulation of nuclear reactors. CASL's vision is to predict with confidence the performance of nuclear reactors through comprehensive science-based modeling and simulation technology that is deployed and applied broadly throughout the nuclear energy industry to enhance safety, reliability and economics. CASL is capitalizing on advancements in computing and is helping retain and strengthen U.S. leadership in two key mission areas of high-performance computing and nuclear energy.    CASL targets R&amp;D in technical areas that have been selected as significant current industry challenges where modeling and simulation can provide meaningful advancements, particularly to help achieve increases in operating power, life extensions and higher fuel utilization. Many of the CASL developments are focused on key phenomena that limit power generation and so they can improve operations. Similarly, a significant benefit can be achieved through further life extensions by ensuring that reactor life-limiting components can meet their design requirements for longer operating periods beyond the current license renewals.    CASL's integrated research model is based on establishing an organization with outstanding researchers with a clear and agile research plan. Let me point out a few of the key features of this integrated model: central integrated management decision making and program integration, strong science and engineering applications and design leadership, independent oversight and review by an external board of directors, science and industry councils for oversight, review and advice, an agile work process based on 6-month planning execution periods.    In order to achieve our research goals, CSL is developing a virtual reactor that we call VERA, which stands for the virtual environment for reactor applications. Our key research accomplishments in the development of VERA include creating a comprehensive Hub environment that supports a large team of researchers working on developing, testing and deploying VERA, the virtual reactor; developing computational methods and computer codes for all key physics needed to model reactor operation; applying VERA to several--to simulate several nuclear power plants including the Watts Bar nuclear plant near Oak Ridge, which is designed by Westinghouse and operated by TVA, both partners in CASL; and coupling of physics software components and models with initial applications providing integrated simulation capabilities not previously available.    The key metric of the success of CASL's modeling and simulation capabilities is deployment to nuclear industry where these tools can be used. In order to achieve this, we have strong engagement with our industry partners and a broad connection with private industry through the integration of more than 50 additional contributing partners. CASL also relies an industry-led industry council with over 25 members from the broader nuclear energy and modeling simulation industries.    VERA has already been deployed in industry engineering environments through CASL test stands. This includes, for example, the use of VERA at Westinghouse for simulating the AP-1000 reactor to confirm their own engineering calculations. In CASL's second five-year term, VERA will be expanded beyond pressurized water reactors to support boiling water reactors, which represent the remainder of our current operating fleet. We will also consider future light water reactor designs including small modular reactors.    In conclusion, Energy Innovation Hubs represent an effective research model that enables CASL to conduct basic and applied research for critical energy application. Through the Hub model, CASL has tapped into DOE advanced computing strengths and nuclear energy research capabilities. We have taken advantage of the best and brightest university researchers and we have integrated decades of industry experience and expertise. This highly integrated, focused R&amp;D partnership has demonstrated accomplishments at a rapid pace, notably including successful deployments to several industry end users. As the first Energy Innovation Hub, CASL has clearly demonstrated that this research model can be a very effective method to deliver targeted research and rapid solutions to address complex issues.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. Thank you, Doctor.    Dr. Crabtree.</t>
   </si>
   <si>
-    <t>Crabtree</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Crabtree. Thank you, Chairman Weber and Ranking Member Grayson and Members of the Committee for this opportunity to testify. I will be talking about the Joint Center for Energy Store Research, otherwise known as JCESR, which addresses two compelling challenges: creating the next generation of high-performance, inexpensive electricity storage to transform transportation through the widespread penetration of electric cars, and to transform the electricity grid through widespread penetration of clean and sustainable wind and solar energy. JCESR concentrates exclusively on next-generation electricity storage beyond the reach of today's lithium ion technology.    Transportation and the grid account for 2/3 of all the energy used in the United States. Transforming them with high-performance, inexpensive storage not only modernizes our energy system but also grows the economy, creates jobs and promotes U.S. innovation in the global marketplace.    JCSER brings a new paradigm to battery R&amp;D, integrating four functions into a single highly interactive organization, and those four functions are discovery science, battery design, research prototyping, and manufacturer collaboration. It is close interaction spanning across these four functions that accelerates the pace of discovery and innovation and shortens the time from conceptualization to commercialization. So JCESR's new paradigm is a model not only for battery R&amp;D but also for other critical national energy challenges.    Using our new paradigm, JCESR intends to create two additional outcomes or legacies: a library of fundamental science of energy storage, applying the remarkable advances of nanoscience of the last 15 years to the materials and phenomena of energy storage at atomic and molecular levels, and the second outcome, using this new understanding to develop two prototype batteries, one for transportation, one for the grid, that when scaled to manufacturing have five times the energy density and one-fifth the cost of today's commercial lithium ion batteries. Although the two batteries may look very different, they will be based on the same library of fundamental science.    JCESR has already made substantial progress toward its goals. Soon after launch, we established our new paradigm spanning 150 researchers at 14 partner institutions. We began building the personal relationships that enable intense and effective communication, and we put in place the strategic objectives and the daily meetings that drive our program. In its first year, JCESR established three distinguishing tools so materials genome approaches for crystalline electrodes and liquid electrolytes that simulate tens of thousands of materials on the computer to find the most promising ones before they are ever made in the laboratory.    We also put together a unique electrochemical discovery lab to synthesize and explore these materials with state-of-the-art tools and the third distinguishing tool is techno-economic modeling to simulate the performance and cost of complete battery systems on the computer before they're prototyped.    So JCESR used these tools to make foundational progress in all four of its functional areas. We identified four promising directions for transportation and grid prototypes. We used our tools to converge these four battery prototypes so techno-economic modeling revealed the ultimate performance of each of the four prototypes and in an inverse process provided performance and cost thresholds for the materials that would make up the components of those batteries. The materials genomes found promising materials to meet these thresholds and the synthesis and prototyping teams began to build partial and complete prototypes to test the compatibility of the materials as complete battery systems. So we've met extensively with the private sector to discuss the size and performance of JCESR's prototypes that would be required to translate them to commercialization.    In our 2-1/2 years of operator, we've learned the critical importance of continuous improvement of our new paradigm. We worked closely with our 14 partners, our 150 researchers and our sponsor, the Office of Basic Energy Sciences in DOE, to refine our management practices, to refine our strategic directions, and to balance our exploratory divergent research to identify promising solutions with focused convergent research to implement and complete the selected solutions and prototypes rapidly.    During this time, we've terminated research on one candidate prototype--that would be lithium oxygen batteries--and initiated research on other promising opportunities including metal anodes for lithium and magnesium, and membranes for flow batteries. Nimble response to management and strategic challenges and opportunities as they arise is essential for completing our mission in a timely manner.    So thank you again for the opportunity to testify and I'm happy to answer questions later on.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. Thank you, Dr. Crabtree.    Dr. King.</t>
   </si>
   <si>
-    <t>King</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Chairman Weber, Ranking Member Grayson, Members of the Subcommittee. Thank you for the opportunity to testify at today's hearing on innovation Hubs.    I'm Director of the Critical Materials Institute, which is led by the Ames Lab in Ames, Iowa, the U.S. Department of Energy Office of Science National Lab operated by Iowa State University. CMI's team includes more than 300 researchers and support staff across six corporations, seven universities and four national labs.    CMI exists primarily to mitigate the challenges posed to the manufacturing sector by materials that provide essential functions or capabilities but are subject to supply risks. The Hub focuses on materials used in clean energy technologies, but many of these have broader uses, notably in the area of defense. Prominent among the Hub's research targets are the rare earth elements, which are used in magnets, lighting and displays, and lithium, which is used in today's rechargeable batteries.    CMI follows the critical materials strategic developed by the U.S. Department of Energy, addressing opportunities in three areas: One, diversification of supply; two, development of substitute materials; and three, improving the efficiency of materials used in reducing waste in our access of the currently available materials.    Within its first five years, this Hub will develop and have adopted by industry at least one technology in each of these three areas. In its first two years of operation--we just celebrated our second anniversary--CMI has developed 34 inventions with significant potential for impact, has made four patent applications. It is very close to having one replacement material adopted by an industrial and is within a year or two of a second. Materials development of this kind typically takes 20 years, and we've succeeded in two. Maybe I'll explain how later. CMI-developed technology for solvent extraction is being considered for licensing by two mining companies as we speak.    These results have strong potential for providing financial returns on the investments made by the U.S. taxpayer. The Hub has earned an international reputation and has been described as the gold standard in its field. Several other countries are modeling their own efforts after CMI.    How does this integrated research model advance the goals of the Office of Science and Applied Programs at DOE? Let me offer an example. In pursuit of new magnet models, we combine, as other Hubs do, computer simulations, experimental exploration of candidate alloys, rapid analysis and testing. These methods are all founded upon tools previously developed among CMI's partners largely with DOE Office of Science Support, but we have advanced them and made them specific to our own purposes. So the Hub has in its first two years developed the first successful theory and computer models for predicting what is called magneto-crystalline anisotropy--maybe I'll explain if you ask--for proposed new materials. This is something that hadn't been possible before. It's a contribution from fundamental condensed matter physics in support of developing new magnetic materials.    We've developed a tool based on additive manufacturing technologies for the rapid production of target magnet compositions, allowing us to produce arrays of materials that can then be tested. We've built new capabilities actually in collaboration with JCAP for rapid analysis of materials that take advantage of our additive manufacturing tool, and we have added high-throughput magnet testing capabilities. All of these capabilities work together to produce new materials, make them, test them, and meet the needs of the Hub. They are also enhancing the capabilities of other Office of Science and EERE programs, bringing them together. We have created a range of candidate materials for new high-performance magnets.    Effectively, what we have done is to orchestrate diverse scientific efforts and enhance them so that we're able to meet technological needs of the day in short order. We're able--we've demonstrated the ability by doing that to go from zero to having new materials invented in two years, a process that typically takes up to 20.    How does the private sector interact with CMI? We are very flexible. We seek--we have always sought to be flexible and responsive to industry needs. We find that our research goes faster when we speak to industry because speaking first we listen. We foster increasingly intensive collaborations as companies move from informal interactions to membership in our affiliate program to full engagement as research team members. Some companies have also expressed interest in engaging CMI for proprietary pre-commercial research, and we are considering that opportunity.    Technologies developed by the Hub using its federal funds must be pre-competitive, must have high potential for impact on the supply chain, must be cost-effective, timely and have potential for adoption by U.S.-based companies.    Thank you.</t>
   </si>
   <si>
@@ -247,9 +226,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman.    A couple of specific questions, and Mr. Gehin, is that how I pronounce it? Am I correct in that?</t>
   </si>
   <si>
@@ -340,9 +316,6 @@
     <t>412624</t>
   </si>
   <si>
-    <t>Barry Loudermilk</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Mr. Chairman, and Dr. Gehin, I want to circle back over to the light water reactors. I'll take a little different approach here, but in Georgia, Plant Vogtle is bringing online hopefully very soon two Westinghouse AP-1000 reactors. We're actually taking a CODEL trip to visit Georgia Power here next month to view those.    In light of what Mr. Rohrabacher said, can you elaborate a little bit how CASL and VERA have been useful in licensing, ensuring the safety operations of the AP-1000s and should the people in Georgia be concerned or is the technology sound? Can you elaborate a little bit on these two new reactors coming online?</t>
   </si>
   <si>
@@ -376,9 +349,6 @@
     <t>412192</t>
   </si>
   <si>
-    <t>Ed Perlmutter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Perlmutter. Thanks, Mr. Chair, and I want to thank the panelists for being here today. This is fascinating. And I'm going to ask more general questions, not as specific as some of my colleagues have asked.    And Dr. King, I'd like to start with you. The purpose of these Hubs in my estimation, and as policymakers, we're trying to decide are they working, are they not working, are they doing the kinds of things that you might expect as an experienced scientist and an administrator. Do you see these Hubs as beneficial to the future of this country? And it's going to be that broad, so go for it.</t>
   </si>
   <si>
@@ -446,9 +416,6 @@
   </si>
   <si>
     <t>412600</t>
-  </si>
-  <si>
-    <t>Katherine M. Clark</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Clark. Thank you, Mr. Chairman, and thank you to all the panelists.    I have--I also have a sort of general question for all of you, but it's been a theme that's come up. Dr. Crabtree, you referred to it. This--we tend to talk about basic and applied research in two different buckets and, you know, really silo that, and I think it has an impact in not only how we look at science and the way the Hubs are working but also in other areas in the way we fund things and prioritize. What I'm hearing from your testimony--and we had a hearing last month where Dr. Whittaker also referenced that this is sort of a false dichotomy that we have put together, and I would love to hear in your experience in the Hubs how you see this and, you know, do you see any potential dangers in really looking at these as two very different siloed ways of looking at science and research?</t>
@@ -895,11 +862,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -921,11 +886,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -945,13 +908,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -973,11 +934,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -997,13 +956,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1025,11 +982,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1049,13 +1004,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1077,11 +1030,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1101,13 +1052,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1129,11 +1078,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1153,13 +1100,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1181,11 +1126,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1205,13 +1148,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1233,11 +1174,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1257,13 +1196,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1285,11 +1222,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1309,13 +1244,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1337,11 +1270,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1361,13 +1292,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1389,11 +1318,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1413,13 +1340,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1441,11 +1366,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1465,13 +1388,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1493,11 +1414,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1517,13 +1436,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1545,11 +1462,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1569,13 +1484,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1597,11 +1510,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1621,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1649,11 +1558,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1673,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1701,11 +1606,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1725,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1753,11 +1654,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1777,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1805,11 +1702,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1829,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1857,11 +1750,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1881,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1907,13 +1796,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1933,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1959,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1985,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2011,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2037,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2063,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2089,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2115,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2141,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2167,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2193,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2219,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2245,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2271,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2297,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2325,11 +2182,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2349,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>76</v>
-      </c>
-      <c r="G58" t="s">
-        <v>77</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2375,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2401,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>76</v>
-      </c>
-      <c r="G60" t="s">
-        <v>77</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2427,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2453,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G62" t="s">
-        <v>77</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2479,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2507,11 +2350,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2531,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G65" t="s">
+        <v>69</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
         <v>77</v>
-      </c>
-      <c r="H65" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2559,11 +2398,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2583,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2611,11 +2446,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2635,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2663,11 +2494,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2687,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>76</v>
-      </c>
-      <c r="G71" t="s">
-        <v>77</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2713,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2739,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G73" t="s">
-        <v>77</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2765,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2791,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>76</v>
-      </c>
-      <c r="G75" t="s">
-        <v>77</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2819,11 +2638,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2843,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2869,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2895,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2921,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2947,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2973,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2999,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3025,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3051,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3079,11 +2878,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3103,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>107</v>
-      </c>
-      <c r="G87" t="s">
-        <v>108</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3129,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3155,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>107</v>
-      </c>
-      <c r="G89" t="s">
-        <v>108</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3181,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
-      </c>
-      <c r="G90" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3207,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>107</v>
-      </c>
-      <c r="G91" t="s">
-        <v>108</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3233,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
-      </c>
-      <c r="G92" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3259,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>107</v>
-      </c>
-      <c r="G93" t="s">
-        <v>108</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3285,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
-      </c>
-      <c r="G94" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3311,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>107</v>
-      </c>
-      <c r="G95" t="s">
+        <v>99</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
         <v>108</v>
-      </c>
-      <c r="H95" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3339,11 +3118,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3363,13 +3140,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>119</v>
-      </c>
-      <c r="G97" t="s">
-        <v>120</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3389,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3415,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>119</v>
-      </c>
-      <c r="G99" t="s">
-        <v>120</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3441,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3467,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>119</v>
-      </c>
-      <c r="G101" t="s">
-        <v>120</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3493,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3519,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>119</v>
-      </c>
-      <c r="G103" t="s">
-        <v>120</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3545,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
-      </c>
-      <c r="G104" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3571,13 +3332,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
+        <v>110</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
         <v>119</v>
-      </c>
-      <c r="G105" t="s">
-        <v>120</v>
-      </c>
-      <c r="H105" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3597,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>23</v>
-      </c>
-      <c r="G106" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3623,13 +3380,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>119</v>
-      </c>
-      <c r="G107" t="s">
-        <v>120</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3649,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>23</v>
-      </c>
-      <c r="G108" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3675,13 +3428,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>119</v>
-      </c>
-      <c r="G109" t="s">
-        <v>120</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3701,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
-      </c>
-      <c r="G110" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3727,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>119</v>
-      </c>
-      <c r="G111" t="s">
-        <v>120</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3753,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>23</v>
-      </c>
-      <c r="G112" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3779,13 +3524,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>119</v>
-      </c>
-      <c r="G113" t="s">
-        <v>120</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3805,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>23</v>
-      </c>
-      <c r="G114" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3831,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>119</v>
-      </c>
-      <c r="G115" t="s">
-        <v>120</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3859,11 +3598,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3883,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>119</v>
-      </c>
-      <c r="G117" t="s">
-        <v>120</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3911,11 +3646,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3935,13 +3668,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>143</v>
-      </c>
-      <c r="G119" t="s">
-        <v>144</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3961,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>23</v>
-      </c>
-      <c r="G120" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3987,13 +3716,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>143</v>
-      </c>
-      <c r="G121" t="s">
-        <v>144</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4013,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>23</v>
-      </c>
-      <c r="G122" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4039,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>143</v>
-      </c>
-      <c r="G123" t="s">
-        <v>144</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4065,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>23</v>
-      </c>
-      <c r="G124" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4091,13 +3812,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>143</v>
-      </c>
-      <c r="G125" t="s">
-        <v>144</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4119,11 +3838,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4143,13 +3860,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>15</v>
-      </c>
-      <c r="G127" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4169,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>23</v>
-      </c>
-      <c r="G128" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4195,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>15</v>
-      </c>
-      <c r="G129" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4221,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>23</v>
-      </c>
-      <c r="G130" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4247,13 +3956,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>15</v>
-      </c>
-      <c r="G131" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4273,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>23</v>
-      </c>
-      <c r="G132" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4299,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>15</v>
-      </c>
-      <c r="G133" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4327,11 +4030,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97565.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97565.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412574</t>
   </si>
   <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Weber. Good morning, and welcome to today's Energy Subcommittee hearing on the Department of Energy's (DOE) Energy Innovation Hubs.    This hearing will establish Congressional oversight over the four existing Hubs, examining the costs and benefits of the Department's approach to collaborative research and development.    DOE Energy Innovation Hubs are designed to coordinate research efforts across the Department, encouraging cooperation between researchers in basic science, applied energy, and engineering, and bringing together researchers from the national labs, academia, and industry into teams focused on solving critical energy challenges. With appropriate goals, benchmarks, and oversight, this kind of collaborative research and development is just plain old common sense.    Through the national labs, the federal government has the expertise to conduct basic and applied research, while the private sector has the ability and the motivation to move the next-generation energy technology into the marketplace. The Department funds the four Energy Innovation Hubs at approximately $90 million per year. The existing Hubs are focused on a number of energy challenges including extending the life of nuclear power reactors, developing better and more powerful batteries, creating new materials for advanced energy technology, and mimicking the ability that plants have to create fuels from sunlight.    The Consortium for Advanced Simulation of Light Water Reactors, also known as CASL, brings together our best and brightest from industry, academia, and the labs to develop codes to model and simulate operations of the U.S. reactor fleet. These cutting-edge tools allow us to increase our return on investment from DOE's supercomputers within the Office of Science's Advanced Scientific Computing Research program--the subject of a hearing we held in the Energy Subcommittee earlier this year.    One critical application of CASL's virtual environment for reactor applications, known as VERA for short, is to enable the nuclear industry and regulators to predict the performance of reactor components for license renewals by the Nuclear Regulatory Commission (NRC). I'd like everyone to take note of the slide on the screen, which shows what is at stake--it's called The Clock is Ticking--shows what is at stake for the nation's base load electricity from nuclear power if the operating fleet is unable to secure license renewals to 60 years and 80 years of operating life, respectively, and it shows it there on either one of our slides. These NRC license renewals are an important issue for the reliability of our nation's electricity and for my district on The Texas Gulf Coast.    The South Texas Project, currently operating near my district which I used to represent, by the way, as you gentlemen know, provides reliable, zero-emissions electricity to the State of Texas, and good-paying jobs for my constituents. It's pretty clear from this graph just how important these licenses are to maintaining reliable, affordable power across the country. I know that Dr. Gehin has provided a similar figure in his prepared testimony, so I look forward to discussing this important issue today.    The research and development underway in the CASL Hub is just one example of the benefits from this collaborative research approach. The technical expertise and scientific facilities in our national labs can provide tremendous impact on the private sector through appropriate partnerships.    However, while the current DOE Hubs program pursues worthy research goals, not all collaborative research is a guaranteed success. In the first round of Hubs in the program, DOE established a Hub focused on building efficiency. But due to cost, poor performance, and a lack of clear goals, this Hub was dissolved.    Establishing a new Hub, center, or project is not the answer to every problem, and new proposals must be appropriately justified to Congress and shown to meet the research and development goals for the lead DOE office. Any authorization of new or continuing Hubs proposed by DOE must also include the ability to efficiently close down projects that are not achieving clear measures of success.    I want to thank our witnesses today for testifying on their valuable research and the DOE Energy Innovation Hub program. I look forward to a discussion about Federal Government's role in leading collaborative research and development, and how to leverage limited taxpayer dollars for the greatest economic impact and scientific achievement.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412276</t>
   </si>
   <si>
+    <t>Grayson</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Grayson. Thank you, Chairman Weber, for holding this hearing, and thank you to our witnesses for joining us today.    I am pleased to see that we have the Director of each Energy Innovation Hub here this morning. These Hubs seek to accelerate scientific discoveries that address critical energy issues, particularly barriers to advancing new energy technology.    Today's hearing is well-timed. Two of the four existing Innovation Hubs are up for renewal this year, while the others are just beginning. The Energy Innovation Hub Program was established only five years ago and this hearing will provide Members an important opportunity to understand further what must be done to ensure the successes of existing, and future, Hubs.    Unfortunately, Congress has yet to provide any authorizing legislation for the important work being performed at each of the Hubs. I hope that today's hearing will provide the insights needed to accomplish that goal. Toward that end, I have already introduced H.R. 1870, a bill that would establish merit-based rules governing the selection, scope, and composition of future Hubs. Further, the Committee hasaccepted the legislative language from that bill as an amendment to the America COMPETES Reauthorization Act, which was considered on the House Floor less than a month ago. I appreciate the Chairman and his staff's efforts to work together to ensure that this important provision was included in the final bill. I also want to thank Ranking Member Johnson for including it in the alternative COMPETES legislation, produced by the Minority, that was offered as a substitute amendment both in Committee and on the Floor.    I am very excited about the possibility of our Committee finally producing authorizing legislation for Energy Innovation Hubs. There are some issues I look forward to learning about this morning, particularly issues regarding Hub management and length of operation. We need develop a plan for Hubs that reach the end of their second five-year contract. Presently, the Department is indicating that Hubs will conclude work after a maximum of ten years only. I support this guidance in principle because it fosters a sense of urgency within Hubs to define and achieve goals as expeditiously as possible.    But what happens when a Hub has been extraordinarily successful? Maybe there should be some process through which, according to merit-based review, that Hub is permitted to continue pursuing promising research and maybe even profound new discoveries.    The answers to these questions, and others, are what I'm looking forward to hearing from you all today. I also look forward to hearing each of your views as to how your own Hub works in the context of Department of Energy research activities and goals across the board. How, specifically, is the research you are performing contributing to the larger effort to solve our nation's pressing energy challenges and needs?    Each of you is involved in exciting and innovative work. I look forward to hearing from you, and watching each of your Hubs as they progress. It's my hope that Congress can provide to you the resources that you need to accomplish your goals, and I look forward to working with you, Chairman Weber, toward that end.    Thank you. I yield the balance of my time.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>400630</t>
   </si>
   <si>
+    <t>Lipinski</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Chairman Weber, and thank you, Chairman and Ranking Member Grayson, for holding this hearing.    It's my honor to introduce Dr. George Crabtree, who's the Director of Joint Center for Energy Storage Research, or JCESR, at Argonne National Lab, which is in my district. He's also a distinguished Professor of Physics, Electrical and Mechanical Engineering at the University of Illinois at Chicago, serving as a bridge between Argonne and academia. He has won numerous awards for his research including the Kammerlingh Onnes Prize for his work on vortices and high-temperature superconductors. This prestigious prize is awarded once every three years. Dr. Crabtree is the second recipient. He has won the U.S. Department of Energy's Award for Outstanding Scientific Accomplishment in Solid State Physics four times, which is a very notable accomplishment.    Dr. Crabtree has served as Director of the Material Science Division at Argonne. He has published more than 400 papers in leading scientific journals, has collected over 16,000 career citations, has given over 100 invited talks at national and international scientific conferences. His research interests include next-generation battery materials, sustainable energy, energy policy, material science, nanoscale superconductors and magnets, and highly correlated electrons and medals. Dr. Crabtree co-chaired the Under Secretary of Energy's Assessment of DOE's Applied Energy programs.    I want to thank Dr. Crabtree for joining us today and I look forward to your testimony.</t>
   </si>
   <si>
@@ -79,24 +100,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Atwater</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Atwater. Okay. Mr. Chairman, distinguished Members, ladies and gentlemen. It's my pleasure to be here today to tell you about the work, the mission and the progress the Joint Center for Artificial Photosynthesis.    So I think it's fair to say that having a source of renewable fuels would be a great source of energy security, economic well-being, and environmental protection for the United States, and JCAP, which is a partnership that's led by Cal Tech, but also with major partnerships with the national labs, Lawrence Berkeley National Labs and Stanford Linear Accelerator Lab, as well as the University of California, is focusing on building the scientific foundation for renewable synthesis of transportation fuels directly from sunlight, water and carbon dioxide using a process called artificial photosynthesis, or otherwise known as generating fuels from sunlight.    So most people are familiar with the idea of generating electricity from sunlight with solar panels that you might put on your roof, so what JCAP is working on is the science behind taking those charge carriers and directly converting those charge carriers that come out of your solar panel into chemical fuels, examples of which are hydrogen, which is generated by splitting water into hydrogen and oxygen, and generating renewable carbon-based fuels by reduction of carbon dioxide. And JCAP was established in 2010, and during its first five years had a primary emphasis on hydrogen production, and its missionary objective, a sort of overarching missionary objective during that time was to develop a robust solar fuel generator for hydrogen generation that operates 10 times more efficiently than natural systems like plants and crops. And I'm happy to say that JCAP has been able to meet that objective of developing a robust solar fuels generator, and more importantly, really developing the concept of what a solar fuels generator is. That's been an important contribution to the scientific field and to the advancement of technology.    In its next five years in renewal, JCAP is going to focus on the--as a main objective, reduction of CO&lt;INF&gt;2&lt;/INF&gt; and converting reduction of CO&lt;INF&gt;2&lt;/INF&gt; to transportation fuels, direct transportation fuels, and this is really also in addition to a strategic objective for making fuels, it is really a dramatic scientific grand challenge, the reduction of CO&lt;INF&gt;2&lt;/INF&gt; selectively, producing exactly one product and not a bunch of byproducts is a true scientific grand challenge.    So to date, we have, as I indicated, been able to develop solar fuels generators that operate 10 times more efficiently than plants, and that has really set the stage for a follow-on generation of applied R&amp;D that can develop the scalable generators, and as you may know, there is no existing solar fuels industry. While there's a solar panel industry, there is no solar fuels industry, so it is these innovations that will really set the stage for U.S. industry, a new U.S. industry in this area.    And in the course of its work in generating solar fuels generators, JCAP also discovered new catalysts for water oxidation and reduction, importantly, a method to protect semiconductors against corrosion so they can be long-lasting and robust in their operation.    In addition to these scientific discoveries, JCAP established a number of important facilities including two state-of-the-art labs, one at California Institute of Technology and once at Lawrence Berkeley Laboratory that are purpose-built for solar fuels research. It established new methods for rapid high-throughput screening of materials so we can do experiments that used to take years in matters of weeks. We developed the first facility for so-called benchmarking, or developing standard test conditions for evaluating catalysts so that we can understand how different solar fuels materials operator and perform. We developed new methods for characterization of solar fuels materials using advanced X-ray light source techniques at the Advanced Light Source at Lawrence Berkeley labs and Stanford Linear Accelerator Lab.    Also, to set the stage for a new solar fuels industry, JCAP has been very active in developing invention disclosures, a total of 36 invention disclosures, and 26 patent applications, which are available for licensing to industry, and has an output of scientific results, 200 papers, 60 percent of which are in high-impact journals and numerous key note and invited presentations by research scientists at JCAP.    And so just to highlight some of the things that, you know, why is it that a Hub is an appropriate mechanism to carry on and accelerate this kind of research, JCAP has been able to leverage the integrated Hub concept to make significant advances, one of which I cited earlier, which is the notion that we could accelerate the development of catalyst materials on a time scale that normally takes years in the sort of conventional pace of progress in science, and carry out that in a matter of weeks, and so as an example, in 2013, JCAP developed by a collaboration between two of the JCAP projects, the high throughput experiment project and the heterogeneous catalysis project, new catalyst materials composed of four elements, and there are many, many ways you can combine four elements together in different compositions, so a very large number of samples were made and rapidly screened using high-throughput combinatorial synthesis techniques that allowed us to very rapidly identify candidates and promising candidates were scaled up and tested at the laboratory level, really accelerating that pace of progress.    Another example is the development of a cross-cutting what we call process materials and integration team, a group of applied and basic research scientists that came together from across JCAP to really understand how to put together and design and build very rapidly solar fuels generator prototypes so we could understand what works and what doesn't on a rapid time scale.    So those are many of the key accomplishments, and so for the future, JCAP is going to focus on the grand challenge of--scientific grand challenge of reduction of carbon dioxide in generation of liquid fuels directly from the products, reduced products. This is an area that takes JCAP, which has a translational mission, sort of more upstream in the basic research end, because in the area of carbon dioxide reduction, there are many more scientific challenges and unanswered questions than I think currently exist for the case of hydrogen production. And so it's the opportunity to really unlock the mechanisms and the scientific discoveries that could selectively reduce CO&lt;INF&gt;2&lt;/INF&gt; to fuel products that could generate a new generation of generators for liquid fuels, and that's going to be our missionary objective as a scientific grand challenge and setting the stage for a new type of solar fuel generator.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. Thank you, Dr. Atwater.    Dr. Gehin.</t>
   </si>
   <si>
+    <t>Gehin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Gehin. Thank you very much, Chairman Weber, Ranking Member Grayson, and Members of the Subcommittee. It's my honor to be here to provide this testimony on the Energy Innovation Hub integrated research approach.    CASL was the first Hub established by the Department of Energy in July 2010. It's currently completing its first five-year term. It consists of 10 core founding partner institutions from academia, national laboratories and industries led by Oak Ridge National Laboratory.    Our focus is on innovations in nuclear commercial power generator, specifically the advanced modeling and simulation of nuclear reactors. CASL's vision is to predict with confidence the performance of nuclear reactors through comprehensive science-based modeling and simulation technology that is deployed and applied broadly throughout the nuclear energy industry to enhance safety, reliability and economics. CASL is capitalizing on advancements in computing and is helping retain and strengthen U.S. leadership in two key mission areas of high-performance computing and nuclear energy.    CASL targets R&amp;D in technical areas that have been selected as significant current industry challenges where modeling and simulation can provide meaningful advancements, particularly to help achieve increases in operating power, life extensions and higher fuel utilization. Many of the CASL developments are focused on key phenomena that limit power generation and so they can improve operations. Similarly, a significant benefit can be achieved through further life extensions by ensuring that reactor life-limiting components can meet their design requirements for longer operating periods beyond the current license renewals.    CASL's integrated research model is based on establishing an organization with outstanding researchers with a clear and agile research plan. Let me point out a few of the key features of this integrated model: central integrated management decision making and program integration, strong science and engineering applications and design leadership, independent oversight and review by an external board of directors, science and industry councils for oversight, review and advice, an agile work process based on 6-month planning execution periods.    In order to achieve our research goals, CSL is developing a virtual reactor that we call VERA, which stands for the virtual environment for reactor applications. Our key research accomplishments in the development of VERA include creating a comprehensive Hub environment that supports a large team of researchers working on developing, testing and deploying VERA, the virtual reactor; developing computational methods and computer codes for all key physics needed to model reactor operation; applying VERA to several--to simulate several nuclear power plants including the Watts Bar nuclear plant near Oak Ridge, which is designed by Westinghouse and operated by TVA, both partners in CASL; and coupling of physics software components and models with initial applications providing integrated simulation capabilities not previously available.    The key metric of the success of CASL's modeling and simulation capabilities is deployment to nuclear industry where these tools can be used. In order to achieve this, we have strong engagement with our industry partners and a broad connection with private industry through the integration of more than 50 additional contributing partners. CASL also relies an industry-led industry council with over 25 members from the broader nuclear energy and modeling simulation industries.    VERA has already been deployed in industry engineering environments through CASL test stands. This includes, for example, the use of VERA at Westinghouse for simulating the AP-1000 reactor to confirm their own engineering calculations. In CASL's second five-year term, VERA will be expanded beyond pressurized water reactors to support boiling water reactors, which represent the remainder of our current operating fleet. We will also consider future light water reactor designs including small modular reactors.    In conclusion, Energy Innovation Hubs represent an effective research model that enables CASL to conduct basic and applied research for critical energy application. Through the Hub model, CASL has tapped into DOE advanced computing strengths and nuclear energy research capabilities. We have taken advantage of the best and brightest university researchers and we have integrated decades of industry experience and expertise. This highly integrated, focused R&amp;D partnership has demonstrated accomplishments at a rapid pace, notably including successful deployments to several industry end users. As the first Energy Innovation Hub, CASL has clearly demonstrated that this research model can be a very effective method to deliver targeted research and rapid solutions to address complex issues.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. Thank you, Doctor.    Dr. Crabtree.</t>
   </si>
   <si>
+    <t>Crabtree</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Crabtree. Thank you, Chairman Weber and Ranking Member Grayson and Members of the Committee for this opportunity to testify. I will be talking about the Joint Center for Energy Store Research, otherwise known as JCESR, which addresses two compelling challenges: creating the next generation of high-performance, inexpensive electricity storage to transform transportation through the widespread penetration of electric cars, and to transform the electricity grid through widespread penetration of clean and sustainable wind and solar energy. JCESR concentrates exclusively on next-generation electricity storage beyond the reach of today's lithium ion technology.    Transportation and the grid account for 2/3 of all the energy used in the United States. Transforming them with high-performance, inexpensive storage not only modernizes our energy system but also grows the economy, creates jobs and promotes U.S. innovation in the global marketplace.    JCSER brings a new paradigm to battery R&amp;D, integrating four functions into a single highly interactive organization, and those four functions are discovery science, battery design, research prototyping, and manufacturer collaboration. It is close interaction spanning across these four functions that accelerates the pace of discovery and innovation and shortens the time from conceptualization to commercialization. So JCESR's new paradigm is a model not only for battery R&amp;D but also for other critical national energy challenges.    Using our new paradigm, JCESR intends to create two additional outcomes or legacies: a library of fundamental science of energy storage, applying the remarkable advances of nanoscience of the last 15 years to the materials and phenomena of energy storage at atomic and molecular levels, and the second outcome, using this new understanding to develop two prototype batteries, one for transportation, one for the grid, that when scaled to manufacturing have five times the energy density and one-fifth the cost of today's commercial lithium ion batteries. Although the two batteries may look very different, they will be based on the same library of fundamental science.    JCESR has already made substantial progress toward its goals. Soon after launch, we established our new paradigm spanning 150 researchers at 14 partner institutions. We began building the personal relationships that enable intense and effective communication, and we put in place the strategic objectives and the daily meetings that drive our program. In its first year, JCESR established three distinguishing tools so materials genome approaches for crystalline electrodes and liquid electrolytes that simulate tens of thousands of materials on the computer to find the most promising ones before they are ever made in the laboratory.    We also put together a unique electrochemical discovery lab to synthesize and explore these materials with state-of-the-art tools and the third distinguishing tool is techno-economic modeling to simulate the performance and cost of complete battery systems on the computer before they're prototyped.    So JCESR used these tools to make foundational progress in all four of its functional areas. We identified four promising directions for transportation and grid prototypes. We used our tools to converge these four battery prototypes so techno-economic modeling revealed the ultimate performance of each of the four prototypes and in an inverse process provided performance and cost thresholds for the materials that would make up the components of those batteries. The materials genomes found promising materials to meet these thresholds and the synthesis and prototyping teams began to build partial and complete prototypes to test the compatibility of the materials as complete battery systems. So we've met extensively with the private sector to discuss the size and performance of JCESR's prototypes that would be required to translate them to commercialization.    In our 2-1/2 years of operator, we've learned the critical importance of continuous improvement of our new paradigm. We worked closely with our 14 partners, our 150 researchers and our sponsor, the Office of Basic Energy Sciences in DOE, to refine our management practices, to refine our strategic directions, and to balance our exploratory divergent research to identify promising solutions with focused convergent research to implement and complete the selected solutions and prototypes rapidly.    During this time, we've terminated research on one candidate prototype--that would be lithium oxygen batteries--and initiated research on other promising opportunities including metal anodes for lithium and magnesium, and membranes for flow batteries. Nimble response to management and strategic challenges and opportunities as they arise is essential for completing our mission in a timely manner.    So thank you again for the opportunity to testify and I'm happy to answer questions later on.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. Thank you, Dr. Crabtree.    Dr. King.</t>
   </si>
   <si>
+    <t>King</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Chairman Weber, Ranking Member Grayson, Members of the Subcommittee. Thank you for the opportunity to testify at today's hearing on innovation Hubs.    I'm Director of the Critical Materials Institute, which is led by the Ames Lab in Ames, Iowa, the U.S. Department of Energy Office of Science National Lab operated by Iowa State University. CMI's team includes more than 300 researchers and support staff across six corporations, seven universities and four national labs.    CMI exists primarily to mitigate the challenges posed to the manufacturing sector by materials that provide essential functions or capabilities but are subject to supply risks. The Hub focuses on materials used in clean energy technologies, but many of these have broader uses, notably in the area of defense. Prominent among the Hub's research targets are the rare earth elements, which are used in magnets, lighting and displays, and lithium, which is used in today's rechargeable batteries.    CMI follows the critical materials strategic developed by the U.S. Department of Energy, addressing opportunities in three areas: One, diversification of supply; two, development of substitute materials; and three, improving the efficiency of materials used in reducing waste in our access of the currently available materials.    Within its first five years, this Hub will develop and have adopted by industry at least one technology in each of these three areas. In its first two years of operation--we just celebrated our second anniversary--CMI has developed 34 inventions with significant potential for impact, has made four patent applications. It is very close to having one replacement material adopted by an industrial and is within a year or two of a second. Materials development of this kind typically takes 20 years, and we've succeeded in two. Maybe I'll explain how later. CMI-developed technology for solvent extraction is being considered for licensing by two mining companies as we speak.    These results have strong potential for providing financial returns on the investments made by the U.S. taxpayer. The Hub has earned an international reputation and has been described as the gold standard in its field. Several other countries are modeling their own efforts after CMI.    How does this integrated research model advance the goals of the Office of Science and Applied Programs at DOE? Let me offer an example. In pursuit of new magnet models, we combine, as other Hubs do, computer simulations, experimental exploration of candidate alloys, rapid analysis and testing. These methods are all founded upon tools previously developed among CMI's partners largely with DOE Office of Science Support, but we have advanced them and made them specific to our own purposes. So the Hub has in its first two years developed the first successful theory and computer models for predicting what is called magneto-crystalline anisotropy--maybe I'll explain if you ask--for proposed new materials. This is something that hadn't been possible before. It's a contribution from fundamental condensed matter physics in support of developing new magnetic materials.    We've developed a tool based on additive manufacturing technologies for the rapid production of target magnet compositions, allowing us to produce arrays of materials that can then be tested. We've built new capabilities actually in collaboration with JCAP for rapid analysis of materials that take advantage of our additive manufacturing tool, and we have added high-throughput magnet testing capabilities. All of these capabilities work together to produce new materials, make them, test them, and meet the needs of the Hub. They are also enhancing the capabilities of other Office of Science and EERE programs, bringing them together. We have created a range of candidate materials for new high-performance magnets.    Effectively, what we have done is to orchestrate diverse scientific efforts and enhance them so that we're able to meet technological needs of the day in short order. We're able--we've demonstrated the ability by doing that to go from zero to having new materials invented in two years, a process that typically takes up to 20.    How does the private sector interact with CMI? We are very flexible. We seek--we have always sought to be flexible and responsive to industry needs. We find that our research goes faster when we speak to industry because speaking first we listen. We foster increasingly intensive collaborations as companies move from informal interactions to membership in our affiliate program to full engagement as research team members. Some companies have also expressed interest in engaging CMI for proprietary pre-commercial research, and we are considering that opportunity.    Technologies developed by the Hub using its federal funds must be pre-competitive, must have high potential for impact on the supply chain, must be cost-effective, timely and have potential for adoption by U.S.-based companies.    Thank you.</t>
   </si>
   <si>
@@ -226,6 +259,12 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman.    A couple of specific questions, and Mr. Gehin, is that how I pronounce it? Am I correct in that?</t>
   </si>
   <si>
@@ -316,6 +355,12 @@
     <t>412624</t>
   </si>
   <si>
+    <t>Loudermilk</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Mr. Chairman, and Dr. Gehin, I want to circle back over to the light water reactors. I'll take a little different approach here, but in Georgia, Plant Vogtle is bringing online hopefully very soon two Westinghouse AP-1000 reactors. We're actually taking a CODEL trip to visit Georgia Power here next month to view those.    In light of what Mr. Rohrabacher said, can you elaborate a little bit how CASL and VERA have been useful in licensing, ensuring the safety operations of the AP-1000s and should the people in Georgia be concerned or is the technology sound? Can you elaborate a little bit on these two new reactors coming online?</t>
   </si>
   <si>
@@ -349,6 +394,12 @@
     <t>412192</t>
   </si>
   <si>
+    <t>Perlmutter</t>
+  </si>
+  <si>
+    <t>Ed</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Perlmutter. Thanks, Mr. Chair, and I want to thank the panelists for being here today. This is fascinating. And I'm going to ask more general questions, not as specific as some of my colleagues have asked.    And Dr. King, I'd like to start with you. The purpose of these Hubs in my estimation, and as policymakers, we're trying to decide are they working, are they not working, are they doing the kinds of things that you might expect as an experienced scientist and an administrator. Do you see these Hubs as beneficial to the future of this country? And it's going to be that broad, so go for it.</t>
   </si>
   <si>
@@ -416,6 +467,12 @@
   </si>
   <si>
     <t>412600</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Katherine</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Clark. Thank you, Mr. Chairman, and thank you to all the panelists.    I have--I also have a sort of general question for all of you, but it's been a theme that's come up. Dr. Crabtree, you referred to it. This--we tend to talk about basic and applied research in two different buckets and, you know, really silo that, and I think it has an impact in not only how we look at science and the way the Hubs are working but also in other areas in the way we fund things and prioritize. What I'm hearing from your testimony--and we had a hearing last month where Dr. Whittaker also referenced that this is sort of a false dichotomy that we have put together, and I would love to hear in your experience in the Hubs how you see this and, you know, do you see any potential dangers in really looking at these as two very different siloed ways of looking at science and research?</t>
@@ -812,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -820,7 +877,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,3197 +899,3757 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
       <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
       <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
       <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
       <c r="H50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G51" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
       <c r="H52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G53" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
       <c r="H54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G55" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
       <c r="H56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G58" t="s">
+        <v>81</v>
+      </c>
       <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>69</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G60" t="s">
+        <v>81</v>
+      </c>
       <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>69</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G62" t="s">
+        <v>81</v>
+      </c>
       <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G63" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>69</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G65" t="s">
+        <v>81</v>
+      </c>
       <c r="H65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G69" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>69</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G71" t="s">
+        <v>81</v>
+      </c>
       <c r="H71" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G72" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>69</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G73" t="s">
+        <v>81</v>
+      </c>
       <c r="H73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G74" t="s">
+        <v>34</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>69</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G75" t="s">
+        <v>81</v>
+      </c>
       <c r="H75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G77" t="s">
+        <v>23</v>
+      </c>
       <c r="H77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G78" t="s">
+        <v>34</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G79" t="s">
+        <v>23</v>
+      </c>
       <c r="H79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G80" t="s">
+        <v>34</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G81" t="s">
+        <v>23</v>
+      </c>
       <c r="H81" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G82" t="s">
+        <v>28</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G83" t="s">
+        <v>23</v>
+      </c>
       <c r="H83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G84" t="s">
+        <v>28</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G85" t="s">
+        <v>23</v>
+      </c>
       <c r="H85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>99</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G87" t="s">
+        <v>113</v>
+      </c>
       <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G88" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>99</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G89" t="s">
+        <v>113</v>
+      </c>
       <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G90" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>99</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G91" t="s">
+        <v>113</v>
+      </c>
       <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G92" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>99</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G93" t="s">
+        <v>113</v>
+      </c>
       <c r="H93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G94" t="s">
+        <v>31</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>99</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G95" t="s">
+        <v>113</v>
+      </c>
       <c r="H95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
       <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>110</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G97" t="s">
+        <v>126</v>
+      </c>
       <c r="H97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G98" t="s">
+        <v>37</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>110</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G99" t="s">
+        <v>126</v>
+      </c>
       <c r="H99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G100" t="s">
+        <v>37</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>110</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G101" t="s">
+        <v>126</v>
+      </c>
       <c r="H101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G102" t="s">
+        <v>37</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>110</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G103" t="s">
+        <v>126</v>
+      </c>
       <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I103" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G104" t="s">
+        <v>37</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>110</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G105" t="s">
+        <v>126</v>
+      </c>
       <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I105" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>20</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G106" t="s">
+        <v>34</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>110</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G107" t="s">
+        <v>126</v>
+      </c>
       <c r="H107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I107" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>20</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G108" t="s">
+        <v>34</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>110</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G109" t="s">
+        <v>126</v>
+      </c>
       <c r="H109" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I109" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G110" t="s">
+        <v>34</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>110</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G111" t="s">
+        <v>126</v>
+      </c>
       <c r="H111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I111" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G112" t="s">
+        <v>34</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>110</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G113" t="s">
+        <v>126</v>
+      </c>
       <c r="H113" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G114" t="s">
+        <v>31</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>110</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G115" t="s">
+        <v>126</v>
+      </c>
       <c r="H115" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I115" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
       <c r="H116" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>110</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G117" t="s">
+        <v>126</v>
+      </c>
       <c r="H117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I117" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>133</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G119" t="s">
+        <v>151</v>
+      </c>
       <c r="H119" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G120" t="s">
+        <v>34</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>133</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G121" t="s">
+        <v>151</v>
+      </c>
       <c r="H121" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I121" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>20</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G122" t="s">
+        <v>28</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>133</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G123" t="s">
+        <v>151</v>
+      </c>
       <c r="H123" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G124" t="s">
+        <v>37</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>133</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G125" t="s">
+        <v>151</v>
+      </c>
       <c r="H125" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I125" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
       <c r="H126" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G127" t="s">
+        <v>18</v>
+      </c>
       <c r="H127" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G128" t="s">
+        <v>31</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G129" t="s">
+        <v>18</v>
+      </c>
       <c r="H129" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I129" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G130" t="s">
+        <v>31</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>18</v>
+      </c>
       <c r="H131" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>20</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G132" t="s">
+        <v>31</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>18</v>
+      </c>
       <c r="H133" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
       <c r="H134" t="s">
-        <v>149</v>
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97565.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97565.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412574</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Weber</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>412276</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Grayson</t>
   </si>
   <si>
@@ -83,6 +92,9 @@
   </si>
   <si>
     <t>400630</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Lipinski</t>
@@ -869,7 +881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,7 +889,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -902,3754 +914,4048 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" t="s">
-        <v>34</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" t="s">
-        <v>28</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" t="s">
-        <v>28</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" t="s">
-        <v>28</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G58" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>27</v>
-      </c>
-      <c r="G59" t="s">
-        <v>31</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G60" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" t="s">
-        <v>31</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>35</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G62" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" t="s">
-        <v>31</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G65" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="H65" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>27</v>
-      </c>
-      <c r="G67" t="s">
-        <v>31</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>35</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>27</v>
-      </c>
-      <c r="G69" t="s">
-        <v>31</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>35</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G71" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="H71" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>27</v>
-      </c>
-      <c r="G72" t="s">
-        <v>34</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G73" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="H73" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>27</v>
-      </c>
-      <c r="G74" t="s">
-        <v>34</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>38</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G75" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="H75" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G77" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H77" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G78" t="s">
-        <v>34</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>38</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G79" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H79" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>27</v>
-      </c>
-      <c r="G80" t="s">
-        <v>34</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G81" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H81" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I81" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>27</v>
-      </c>
-      <c r="G82" t="s">
-        <v>28</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>32</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G83" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H83" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I83" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>27</v>
-      </c>
-      <c r="G84" t="s">
-        <v>28</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>32</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G85" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H85" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G87" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="H87" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I87" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>27</v>
-      </c>
-      <c r="G88" t="s">
-        <v>31</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>35</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G89" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I89" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>27</v>
-      </c>
-      <c r="G90" t="s">
-        <v>31</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>35</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G91" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I91" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>27</v>
-      </c>
-      <c r="G92" t="s">
-        <v>31</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>35</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G93" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="H93" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I93" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>27</v>
-      </c>
-      <c r="G94" t="s">
-        <v>31</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>35</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G95" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="H95" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I95" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G97" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="H97" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I97" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>27</v>
-      </c>
-      <c r="G98" t="s">
-        <v>37</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>41</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G99" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="H99" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I99" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J99" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>27</v>
-      </c>
-      <c r="G100" t="s">
-        <v>37</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>41</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G101" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="H101" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I101" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J101" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>27</v>
-      </c>
-      <c r="G102" t="s">
-        <v>37</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>41</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G103" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I103" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J103" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>27</v>
-      </c>
-      <c r="G104" t="s">
-        <v>37</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>41</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G105" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="H105" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I105" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J105" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>27</v>
-      </c>
-      <c r="G106" t="s">
-        <v>34</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>38</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G107" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="H107" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I107" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J107" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>27</v>
-      </c>
-      <c r="G108" t="s">
-        <v>34</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>38</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G109" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="H109" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I109" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J109" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>27</v>
-      </c>
-      <c r="G110" t="s">
-        <v>34</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>38</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G111" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="H111" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I111" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J111" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>27</v>
-      </c>
-      <c r="G112" t="s">
-        <v>34</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>38</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G113" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="H113" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I113" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J113" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>27</v>
-      </c>
-      <c r="G114" t="s">
-        <v>31</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>35</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G115" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="H115" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I115" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J115" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G117" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="H117" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I117" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J117" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G119" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="H119" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I119" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J119" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>27</v>
-      </c>
-      <c r="G120" t="s">
-        <v>34</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>38</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G121" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="H121" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I121" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J121" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>27</v>
-      </c>
-      <c r="G122" t="s">
-        <v>28</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>32</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G123" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="H123" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I123" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J123" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>27</v>
-      </c>
-      <c r="G124" t="s">
-        <v>37</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>41</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G125" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="H125" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I125" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J125" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G127" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H127" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I127" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J127" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>27</v>
-      </c>
-      <c r="G128" t="s">
-        <v>31</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>35</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G129" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H129" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I129" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J129" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>27</v>
-      </c>
-      <c r="G130" t="s">
-        <v>31</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>35</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G131" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H131" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I131" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>27</v>
-      </c>
-      <c r="G132" t="s">
-        <v>31</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>35</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G133" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H133" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I133" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J133" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I134" t="s">
-        <v>168</v>
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
